--- a/Rumble Plate Documentation/Rumble_Plate_BOM.xlsx
+++ b/Rumble Plate Documentation/Rumble_Plate_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24603"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/RD 21-06 Dice Spinner V2.0/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\p-dev\Rumble-Plate-Dice-Roller\Rumble Plate Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_234F9E320352E813D19C8FBCAD3C36ABD6AF08EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{630E142F-6201-4418-94C6-DEB2891244DE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCC3443-1A5E-4483-A186-6BE27826FAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-78" yWindow="0" windowWidth="10524" windowHeight="12318" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>Device: Rumble Plate Dice Tumbler</t>
   </si>
@@ -46,6 +46,147 @@
   </si>
   <si>
     <t>Total filament (g)</t>
+  </si>
+  <si>
+    <t>Date Created: 9/14/2021</t>
+  </si>
+  <si>
+    <t>Commercial Parts:</t>
+  </si>
+  <si>
+    <t>Part type (Electrical. Mechanical, Sanitization, ect)</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Quantity Needed</t>
+  </si>
+  <si>
+    <t>Pkg Quantity</t>
+  </si>
+  <si>
+    <t>Price per package</t>
+  </si>
+  <si>
+    <t>Price per Unit</t>
+  </si>
+  <si>
+    <t>Price for qty needed</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Electrical</t>
+  </si>
+  <si>
+    <t>DC Motor</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/adafruit-industries-llc/711/5353610</t>
+  </si>
+  <si>
+    <t>3.5mm Mono Jack</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/short/pq1d1z</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/short/jvzq2d</t>
+  </si>
+  <si>
+    <t>2271 Kitronik Ltd. | Battery Products | DigiKey</t>
+  </si>
+  <si>
+    <t>Mechanical</t>
+  </si>
+  <si>
+    <t>Cup</t>
+  </si>
+  <si>
+    <t>https://www.walmart.ca/en/ip/great-value-plastic-party-cups-clear/6000198044907</t>
+  </si>
+  <si>
+    <t>Dice</t>
+  </si>
+  <si>
+    <t>https://www.walmart.ca/en/ip/ACE-Dice-5ct/PRD54IXGNXVYTJP</t>
+  </si>
+  <si>
+    <t>https://www.walmart.ca/en/ip/energizer-max-alkaline-aaa-batteries-2-pack/PRD3IIHXYVK66QB</t>
+  </si>
+  <si>
+    <t>3D Printed Parts                                                                                     ESTIMATED PRICING USING 1KG ROLL COST:</t>
+  </si>
+  <si>
+    <t>Part (estimated with 0.3 mm layer height)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>TOTAL Mass (g)</t>
+  </si>
+  <si>
+    <t>Estimated Price</t>
+  </si>
+  <si>
+    <t>Print Time (Min)</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>3D printed Part</t>
+  </si>
+  <si>
+    <t>Cam</t>
+  </si>
+  <si>
+    <t>Plate</t>
+  </si>
+  <si>
+    <t>Lid</t>
+  </si>
+  <si>
+    <t>Total Print Cost:</t>
+  </si>
+  <si>
+    <t>Tools for Assembly</t>
+  </si>
+  <si>
+    <t>Pliers</t>
+  </si>
+  <si>
+    <t>Wire Cutters</t>
+  </si>
+  <si>
+    <t>Wire Strippers</t>
+  </si>
+  <si>
+    <t>Sharp Knife</t>
+  </si>
+  <si>
+    <t>Alternatives (if there are other sources for some parts link them below)</t>
+  </si>
+  <si>
+    <t>Part and description</t>
+  </si>
+  <si>
+    <t>Cups</t>
+  </si>
+  <si>
+    <t>Free from a coffee shop/restaurant</t>
+  </si>
+  <si>
+    <t>Brushed DC Motor 2 (RM2) - RobotShop</t>
+  </si>
+  <si>
+    <t>DC Motor (Bulk)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Gikfun-Motor-Electric-Arduino-EK1291x10C/dp/B06WLL6QM5/ref=asc_df_B06WLL6QM5/?tag=googleshopc0c-20&amp;linkCode=df0&amp;hvadid=292968375828&amp;hvpos=&amp;hvnetw=g&amp;hvrand=3911085705524146783&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9001202&amp;hvtargid=pla-493374726681&amp;psc=1</t>
   </si>
   <si>
     <r>
@@ -61,167 +202,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>V2.0</t>
+      <t>V3.0</t>
     </r>
   </si>
   <si>
-    <t>Date Created: 9/14/2021</t>
-  </si>
-  <si>
-    <t>Commercial Parts:</t>
-  </si>
-  <si>
-    <t>Part type (Electrical. Mechanical, Sanitization, ect)</t>
-  </si>
-  <si>
-    <t>Part</t>
-  </si>
-  <si>
-    <t>Quantity Needed</t>
-  </si>
-  <si>
-    <t>Pkg Quantity</t>
-  </si>
-  <si>
-    <t>Price per package</t>
-  </si>
-  <si>
-    <t>Price per Unit</t>
-  </si>
-  <si>
-    <t>Price for qty needed</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Electrical</t>
-  </si>
-  <si>
-    <t>DC Motor</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/adafruit-industries-llc/711/5353610</t>
-  </si>
-  <si>
-    <t>3.5mm Mono Jack</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/short/pq1d1z</t>
-  </si>
-  <si>
-    <t>Switch (Omron B50503F-)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/short/jvzq2d</t>
-  </si>
-  <si>
-    <t>Battery Holder</t>
-  </si>
-  <si>
-    <t>2271 Kitronik Ltd. | Battery Products | DigiKey</t>
-  </si>
-  <si>
-    <t>Mechanical</t>
-  </si>
-  <si>
-    <t>Cup</t>
-  </si>
-  <si>
-    <t>https://www.walmart.ca/en/ip/great-value-plastic-party-cups-clear/6000198044907</t>
-  </si>
-  <si>
-    <t>Dice</t>
-  </si>
-  <si>
-    <t>https://www.walmart.ca/en/ip/ACE-Dice-5ct/PRD54IXGNXVYTJP</t>
-  </si>
-  <si>
-    <t>AAA Batteries</t>
-  </si>
-  <si>
-    <t>https://www.walmart.ca/en/ip/energizer-max-alkaline-aaa-batteries-2-pack/PRD3IIHXYVK66QB</t>
-  </si>
-  <si>
-    <t>3D Printed Parts                                                                                     ESTIMATED PRICING USING 1KG ROLL COST:</t>
-  </si>
-  <si>
-    <t>Part (estimated with 0.3 mm layer height)</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>TOTAL Mass (g)</t>
-  </si>
-  <si>
-    <t>Estimated Price</t>
-  </si>
-  <si>
-    <t>Print Time (Min)</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>3D printed Part</t>
-  </si>
-  <si>
-    <t>Cam</t>
-  </si>
-  <si>
-    <t>Retaining Ring</t>
-  </si>
-  <si>
-    <t>Button</t>
-  </si>
-  <si>
-    <t>Plate</t>
-  </si>
-  <si>
-    <t>Lid</t>
-  </si>
-  <si>
-    <t>Total Print Cost:</t>
-  </si>
-  <si>
-    <t>Tools for Assembly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soldering iron </t>
-  </si>
-  <si>
-    <t>Pliers</t>
-  </si>
-  <si>
-    <t>Wire Cutters</t>
-  </si>
-  <si>
-    <t>Wire Strippers</t>
-  </si>
-  <si>
-    <t>Sharp Knife</t>
-  </si>
-  <si>
-    <t>Alternatives (if there are other sources for some parts link them below)</t>
-  </si>
-  <si>
-    <t>Part and description</t>
-  </si>
-  <si>
-    <t>Cups</t>
-  </si>
-  <si>
-    <t>Free from a coffee shop/restaurant</t>
-  </si>
-  <si>
-    <t>Brushed DC Motor 2 (RM2) - RobotShop</t>
-  </si>
-  <si>
-    <t>DC Motor (Bulk)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Gikfun-Motor-Electric-Arduino-EK1291x10C/dp/B06WLL6QM5/ref=asc_df_B06WLL6QM5/?tag=googleshopc0c-20&amp;linkCode=df0&amp;hvadid=292968375828&amp;hvpos=&amp;hvnetw=g&amp;hvrand=3911085705524146783&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9001202&amp;hvtargid=pla-493374726681&amp;psc=1</t>
+    <t>Switch (Abra PBS-DS500-NO-RD)</t>
+  </si>
+  <si>
+    <t>AA Battery Holder</t>
+  </si>
+  <si>
+    <t>AA Batteries</t>
+  </si>
+  <si>
+    <t>Soldering Iron</t>
   </si>
 </sst>
 </file>
@@ -229,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,47 +517,45 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Accent4" xfId="3" builtinId="44"/>
@@ -849,28 +841,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="89.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="89.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.26171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.83984375" customWidth="1"/>
+    <col min="5" max="5" width="18.68359375" customWidth="1"/>
+    <col min="6" max="6" width="15.15625" customWidth="1"/>
+    <col min="7" max="7" width="20.41796875" customWidth="1"/>
+    <col min="8" max="8" width="17.26171875" customWidth="1"/>
+    <col min="9" max="9" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="89.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="34.5">
+    <row r="1" spans="1:12" ht="35.1" x14ac:dyDescent="1.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -884,66 +876,66 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="G2" s="5">
+        <f>SUM(G5:G13)+E19</f>
+        <v>13.457649999999999</v>
+      </c>
+      <c r="H2" s="22">
+        <f>SUM(F15:F18)/60</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="I2" s="6">
+        <f>SUM(D15:D18)</f>
+        <v>119.13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5">
-        <f>SUM(G5:G13)+E21</f>
-        <v>13.595649999999999</v>
-      </c>
-      <c r="H2" s="24">
-        <f>SUM(F15:F20)/60</f>
-        <v>4.1166666666666663</v>
-      </c>
-      <c r="I2" s="6">
-        <f>SUM(D15:D20)</f>
-        <v>82.649999999999991</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A3" s="16" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>13</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -952,26 +944,26 @@
         <v>1</v>
       </c>
       <c r="E5" s="9">
-        <v>2.66</v>
-      </c>
-      <c r="F5" s="19">
+        <v>2.35</v>
+      </c>
+      <c r="F5" s="17">
         <f>E5/D5</f>
-        <v>2.66</v>
-      </c>
-      <c r="G5" s="19">
+        <v>2.35</v>
+      </c>
+      <c r="G5" s="17">
         <f>F5*C5</f>
-        <v>2.66</v>
+        <v>2.35</v>
       </c>
       <c r="I5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -980,26 +972,26 @@
         <v>1</v>
       </c>
       <c r="E6" s="9">
-        <v>2.17</v>
-      </c>
-      <c r="F6" s="19">
+        <v>1.6</v>
+      </c>
+      <c r="F6" s="17">
         <f>E6/D6</f>
-        <v>2.17</v>
-      </c>
-      <c r="G6" s="19">
+        <v>1.6</v>
+      </c>
+      <c r="G6" s="17">
         <f>F6*C6</f>
-        <v>2.17</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>1.6</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1008,26 +1000,26 @@
         <v>1</v>
       </c>
       <c r="E7" s="9">
-        <v>0.94</v>
-      </c>
-      <c r="F7" s="19">
+        <v>0.85</v>
+      </c>
+      <c r="F7" s="17">
         <f t="shared" ref="F7:F11" si="0">E7/D7</f>
-        <v>0.94</v>
-      </c>
-      <c r="G7" s="19">
+        <v>0.85</v>
+      </c>
+      <c r="G7" s="17">
         <f>F7*C7</f>
-        <v>0.94</v>
+        <v>0.85</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1035,27 +1027,27 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="32">
-        <v>1.69</v>
-      </c>
-      <c r="F8" s="19">
+      <c r="E8" s="30">
+        <v>1.26</v>
+      </c>
+      <c r="F8" s="17">
         <f t="shared" si="0"/>
-        <v>1.69</v>
-      </c>
-      <c r="G8" s="19">
+        <v>1.26</v>
+      </c>
+      <c r="G8" s="17">
         <f t="shared" ref="G8:G11" si="1">F8*C8</f>
-        <v>1.69</v>
+        <v>1.26</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1063,27 +1055,27 @@
       <c r="D9">
         <v>50</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="30">
         <v>4.47</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="17">
         <f t="shared" si="0"/>
         <v>8.9399999999999993E-2</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <f t="shared" si="1"/>
         <v>8.9399999999999993E-2</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1091,325 +1083,277 @@
       <c r="D10">
         <v>5</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="30">
         <v>5</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="17">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>54</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" s="32">
-        <v>1.98</v>
-      </c>
-      <c r="F11" s="19">
+        <v>12</v>
+      </c>
+      <c r="E11" s="30">
+        <v>13.98</v>
+      </c>
+      <c r="F11" s="17">
         <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-      <c r="G11" s="19">
+        <v>1.165</v>
+      </c>
+      <c r="G11" s="17">
         <f t="shared" si="1"/>
-        <v>1.98</v>
+        <v>2.33</v>
       </c>
       <c r="I11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="25"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="26">
+        <v>25</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="B12" s="27"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="25" t="s">
+      <c r="E14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="28">
-        <v>25</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="G14" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="B15" t="s">
         <v>34</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>42.85</v>
-      </c>
-      <c r="E15" s="19">
+        <v>77.459999999999994</v>
+      </c>
+      <c r="E15" s="17">
         <f>(D15/1000)*$B$13</f>
-        <v>1.07125</v>
+        <v>1.9364999999999997</v>
       </c>
       <c r="F15">
         <v>124</v>
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.76</v>
-      </c>
-      <c r="E16" s="19">
-        <f t="shared" ref="E16:E20" si="2">(D16/1000)*$B$13</f>
-        <v>1.9E-2</v>
+        <v>1.64</v>
+      </c>
+      <c r="E16" s="17">
+        <f t="shared" ref="E16:E18" si="2">(D16/1000)*$B$13</f>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="F16">
         <v>5</v>
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>7.86</v>
-      </c>
-      <c r="E17" s="19">
+        <v>21.26</v>
+      </c>
+      <c r="E17" s="17">
         <f t="shared" si="2"/>
-        <v>0.19650000000000001</v>
+        <v>0.53150000000000008</v>
       </c>
       <c r="F17">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1.03</v>
-      </c>
-      <c r="E18" s="19">
+        <v>18.77</v>
+      </c>
+      <c r="E18" s="17">
         <f t="shared" si="2"/>
-        <v>2.5750000000000002E-2</v>
+        <v>0.46924999999999994</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="s">
+    <row r="19" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="12"/>
+      <c r="D19" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="20">
+        <f>SUM(E15:E18)</f>
+        <v>2.9782499999999992</v>
+      </c>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>15.16</v>
-      </c>
-      <c r="E19" s="19">
-        <f t="shared" si="2"/>
-        <v>0.379</v>
-      </c>
-      <c r="F19">
-        <v>40</v>
-      </c>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>14.99</v>
-      </c>
-      <c r="E20" s="19">
-        <f t="shared" si="2"/>
-        <v>0.37474999999999997</v>
-      </c>
-      <c r="F20">
-        <v>51</v>
-      </c>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="21" t="s">
+    </row>
+    <row r="26" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="27" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="22">
-        <f>SUM(E15:E20)</f>
-        <v>2.0662500000000001</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="14"/>
-      <c r="L21" s="12"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A22" s="10" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" t="s">
+      <c r="B28" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
+      <c r="B29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
+      <c r="B31" s="8" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A29" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A30" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1417,8 +1361,8 @@
     <hyperlink ref="I5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="I7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="I8" r:id="rId3" display="https://www.digikey.ca/en/products/detail/kitronik-ltd/2271/8635436?utm_adgroup=Battery%20Holders%2C%20Clips%2C%20Contacts&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Shopping_Product_Battery%20Products_NEW&amp;utm_term=&amp;productid=8635436&amp;gclid=EAIaIQobChMI5peiluLR8gIV-BitBh35TQ8jEAQYASABEgIOTvD_BwE" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B32" r:id="rId4" display="https://www.robotshop.com/ca/en/solarbotics-regular-motor-2.html?gclid=EAIaIQobChMI3LL01N7R8gIVwwN9Ch2v_ApnEAQYAiABEgIi_vD_BwE" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B33" r:id="rId5" display="https://www.amazon.ca/Gikfun-Motor-Electric-Arduino-EK1291x10C/dp/B06WLL6QM5/ref=asc_df_B06WLL6QM5/?tag=googleshopc0c-20&amp;linkCode=df0&amp;hvadid=292968375828&amp;hvpos=&amp;hvnetw=g&amp;hvrand=3911085705524146783&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9001202&amp;hvtargid=pla-493374726681&amp;psc=1" xr:uid="{4B357037-0DE6-4565-B54A-E83F60604E01}"/>
+    <hyperlink ref="B30" r:id="rId4" display="https://www.robotshop.com/ca/en/solarbotics-regular-motor-2.html?gclid=EAIaIQobChMI3LL01N7R8gIVwwN9Ch2v_ApnEAQYAiABEgIi_vD_BwE" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B31" r:id="rId5" display="https://www.amazon.ca/Gikfun-Motor-Electric-Arduino-EK1291x10C/dp/B06WLL6QM5/ref=asc_df_B06WLL6QM5/?tag=googleshopc0c-20&amp;linkCode=df0&amp;hvadid=292968375828&amp;hvpos=&amp;hvnetw=g&amp;hvrand=3911085705524146783&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9001202&amp;hvtargid=pla-493374726681&amp;psc=1" xr:uid="{4B357037-0DE6-4565-B54A-E83F60604E01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -1426,21 +1370,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B51EC7ECFAC78D4E8EF6CBAFFF0B3505" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="641b75ea3bb63f1616dabaeb23366f2d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xmlns:ns3="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="125aeedd71a4776722a3da1ea4cf4c4d" ns2:_="" ns3:_="">
     <xsd:import namespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
@@ -1663,14 +1592,53 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AC10B74-6CBE-4846-814F-B493EE782BE7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBFE20C1-EC5F-4FE4-A628-C0B2312331D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19E0EDC4-B5DC-4927-9F3D-C564FAF64F61}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19E0EDC4-B5DC-4927-9F3D-C564FAF64F61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBFE20C1-EC5F-4FE4-A628-C0B2312331D8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AC10B74-6CBE-4846-814F-B493EE782BE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>